--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\folder\NCAE_2022_S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\KSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1A3174-C003-40ED-A88D-2220BF9852A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24929F7A-FA6F-4D32-BCD3-37E0E9C3C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BILANS" sheetId="138" r:id="rId1"/>
@@ -18,13 +18,11 @@
     <sheet name="SEC_Processes" sheetId="127" r:id="rId3"/>
     <sheet name="ELEKTROWNIE" sheetId="129" r:id="rId4"/>
     <sheet name="OZE" sheetId="133" r:id="rId5"/>
-    <sheet name="CHP" sheetId="132" r:id="rId6"/>
-    <sheet name="CIEPLOWNIE" sheetId="137" r:id="rId7"/>
-    <sheet name="PRZESYL" sheetId="136" r:id="rId8"/>
-    <sheet name="EMISJE" sheetId="134" r:id="rId9"/>
+    <sheet name="PRZESYL" sheetId="136" r:id="rId6"/>
+    <sheet name="EMISJE" sheetId="134" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -839,72 +837,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
-    <author>tc={70911FE4-4C4E-4558-8CD0-C1439EB30AC1}</author>
-    <author>tc={E4F5F666-2BDB-4F8C-8784-8054A11A4221}</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>With this character *, this column is ignored from VEDA.
-It is just useful for your information</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Produkcja energii elektrycznej netto w pełnej kondensacji</t>
-      </text>
-    </comment>
-    <comment ref="AB5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Wielkość produkcji energii elektrycznej, która jest „tracona” na rzecz produkcji ciepła PPELC (upuszczona para mogłaby wykonać pracę na łopatach turbiny skutkującą produkcją energii elektrycznej)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Maurizio Gargiulo</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>With this character *, this column is ignored from VEDA.
-It is just useful for your information</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
@@ -926,7 +858,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
   <si>
     <t>*Bilans energii</t>
   </si>
@@ -1228,12 +1160,6 @@
     <t>NRG</t>
   </si>
   <si>
-    <t>ELE_WN</t>
-  </si>
-  <si>
-    <t>Energia elektryczna najwyzsze i wysokie napiecie</t>
-  </si>
-  <si>
     <t>PJ</t>
   </si>
   <si>
@@ -1246,30 +1172,12 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>ELE_SN</t>
-  </si>
-  <si>
-    <t>Energia elektryczna srednie napiecie</t>
-  </si>
-  <si>
     <t>ELE_nn</t>
   </si>
   <si>
     <t>Energia elektryczna niskie napiecie</t>
   </si>
   <si>
-    <t>CIEP_WT</t>
-  </si>
-  <si>
-    <t>Cieplo sieciowe (wysokotemperaturowe)</t>
-  </si>
-  <si>
-    <t>CIEP_NT</t>
-  </si>
-  <si>
-    <t>Cieplo zasilajace (o nizszej temperaturze)</t>
-  </si>
-  <si>
     <t>ENV</t>
   </si>
   <si>
@@ -1381,51 +1289,12 @@
     <t>Elektrownie zawodowe opalane weglem brunatnym</t>
   </si>
   <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>EC_WK</t>
-  </si>
-  <si>
-    <t>Elektrocieplownie z turbinami przeciwpreznymi</t>
-  </si>
-  <si>
-    <t>EC_GAZ</t>
-  </si>
-  <si>
-    <t>Elektrocieplownie z turbinami upustowo-kondensacyjnymi</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>CP_WK</t>
-  </si>
-  <si>
-    <t>Cieplownie opalane weglem kamiennym</t>
-  </si>
-  <si>
     <t>PRE</t>
   </si>
   <si>
-    <t>ELE_SN_nn</t>
-  </si>
-  <si>
     <t>Przesyl SN, transformacja SN na nn, dystrybucja nn</t>
   </si>
   <si>
-    <t>ELE_WN_nn</t>
-  </si>
-  <si>
-    <t>Przesyl NN oraz WN, transformacja NN-WN na nn, dystrybucja nn</t>
-  </si>
-  <si>
-    <t>CIEP_WT_NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przesyl, dystrybucja oraz transformacja ciepla sieciowego </t>
-  </si>
-  <si>
     <t>*Elektrownie</t>
   </si>
   <si>
@@ -1519,109 +1388,12 @@
     <t>Czas życia [lata]</t>
   </si>
   <si>
-    <t>WIATR</t>
-  </si>
-  <si>
     <t>SLONCE</t>
   </si>
   <si>
-    <t>*Elektrociepłownie</t>
-  </si>
-  <si>
-    <t>*Obliczenia pomocnicze</t>
-  </si>
-  <si>
-    <t>Share~LO</t>
-  </si>
-  <si>
-    <t>CHPR~FX</t>
-  </si>
-  <si>
-    <t>CHPR~LO</t>
-  </si>
-  <si>
-    <t>CHPR~UP</t>
-  </si>
-  <si>
-    <t>CEH</t>
-  </si>
-  <si>
-    <t>ACT_BND~LO</t>
-  </si>
-  <si>
-    <t>VAR_ACT</t>
-  </si>
-  <si>
-    <t>Wymagany udział surowca</t>
-  </si>
-  <si>
-    <t>Stosunek ciepła do en. elektrycznej (FX)</t>
-  </si>
-  <si>
-    <t>Stosunek ciepła do en. elektrycznej (LO)</t>
-  </si>
-  <si>
-    <t>Stosunek ciepła do en. elektrycznej (UP)</t>
-  </si>
-  <si>
-    <t>Spadek produkcji energii elektrycznej na jednostkę wyprodukowanego ciepła</t>
-  </si>
-  <si>
-    <t>Udział mocy osiągalnej w szczycie</t>
-  </si>
-  <si>
-    <t>Stałe koszty O&amp;M [PLN/KW]</t>
-  </si>
-  <si>
-    <t>Wskaźnik aktywności [PJ]</t>
-  </si>
-  <si>
-    <t>Produkcja energii elektrycznej  netto w PK* [TWh]</t>
-  </si>
-  <si>
-    <t>Produkcja energii elektrycznej  netto  [TWh]</t>
-  </si>
-  <si>
-    <t>Produkcja energii elektrycznej  netto  [PJ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [PJ]</t>
-  </si>
-  <si>
-    <t>Produkcja ciepła 
-[PJ]</t>
-  </si>
-  <si>
-    <t>Produkcja energii elektrycznej i ciepła [PJ]</t>
-  </si>
-  <si>
-    <t>Wskaźnik skojarzenia</t>
-  </si>
-  <si>
-    <t>Zużycie Paliwa
- [PJ]</t>
-  </si>
-  <si>
-    <t>Zużycie paliwa 
-[tys.t]</t>
-  </si>
-  <si>
-    <t>Sprawność ogólna
-[%]</t>
-  </si>
-  <si>
     <t>GAZ</t>
   </si>
   <si>
-    <t>*Ciepłownie</t>
-  </si>
-  <si>
-    <t>Sprawność cieplna netto</t>
-  </si>
-  <si>
-    <t>Moc osiągalna netto [GWt]</t>
-  </si>
-  <si>
     <t>*Przesył i transformacja nośników energii</t>
   </si>
   <si>
@@ -1638,6 +1410,12 @@
   </si>
   <si>
     <t>Współczynnik emisji [kt/PJ]</t>
+  </si>
+  <si>
+    <t>WIATR_LAD</t>
+  </si>
+  <si>
+    <t>TaD_ELE_nn</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1449,7 @@
     <numFmt numFmtId="187" formatCode="#,##0___)"/>
     <numFmt numFmtId="188" formatCode="#,##0.000___)"/>
   </numFmts>
-  <fonts count="129">
+  <fonts count="127">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2452,12 +2230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2494,13 +2266,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -4692,10 +4457,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="119" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4751,25 +4516,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="103" fillId="44" borderId="0" xfId="913" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="186" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="186" fontId="47" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="103" fillId="44" borderId="21" xfId="913" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="796" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="120" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4787,9 +4543,7 @@
     </xf>
     <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="120" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="913" applyFont="1"/>
-    <xf numFmtId="0" fontId="124" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="123" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4799,12 +4553,7 @@
     <xf numFmtId="0" fontId="103" fillId="46" borderId="0" xfId="913" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="120" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="120" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="120" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="186" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="186" fontId="47" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -4832,105 +4581,86 @@
     <xf numFmtId="0" fontId="47" fillId="50" borderId="24" xfId="791" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="43" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="125" fillId="0" borderId="10" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="126" fillId="0" borderId="10" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="28" xfId="1245" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="125" fillId="0" borderId="29" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="187" fontId="125" fillId="0" borderId="11" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="122" fillId="0" borderId="11" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="125" fillId="0" borderId="31" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="125" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="125" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="28" xfId="1245" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="126" fillId="0" borderId="29" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="187" fontId="126" fillId="0" borderId="11" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="123" fillId="0" borderId="11" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="126" fillId="0" borderId="31" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="126" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="126" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="126" fillId="0" borderId="10" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="125" fillId="0" borderId="10" xfId="1244" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="47" fillId="45" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="188" fontId="47" fillId="0" borderId="0" xfId="1244" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="127" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="127" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="127" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="127" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="127" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="186" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="186" fontId="47" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="186" fontId="47" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="186" fontId="0" fillId="48" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4966,38 +4696,17 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="47" fillId="45" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="127" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="43" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="43" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="103" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="103" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="103" fillId="43" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="127" fillId="43" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="796" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="107" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6264,794 +5973,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8035D9D1-15A9-F0F2-2F78-F3043F1FA942}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24736425" y="695325"/>
-          <a:ext cx="352425" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD111EA6-E3D2-46BE-A017-FE92ADC4D636}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="25927050" y="685800"/>
-          <a:ext cx="352425" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F778850-239C-33C0-C185-82E99A63E8F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="26765250" y="685800"/>
-          <a:ext cx="876300" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B604B8E-35BB-B25F-5C86-07539621049C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="27717750" y="685800"/>
-          <a:ext cx="704850" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DBEBE8-5760-7F25-660F-0A8576E966E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="29251275" y="676275"/>
-          <a:ext cx="762000" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9CA45-6392-CAF6-FA7A-8C545C5AAD15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="28660725" y="542925"/>
-          <a:ext cx="361950" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B1A39B-3206-4F49-9C7A-A04FEDC09AD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="31165800" y="666750"/>
-          <a:ext cx="762000" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8935ABFE-EDF6-B6CE-E90C-D57D96B04095}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21155025" y="714375"/>
-          <a:ext cx="581025" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A5223-C089-12B0-5421-9EE7E09876D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21774150" y="742950"/>
-          <a:ext cx="828675" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079C0B42-E73F-C625-111E-6B3DB0B6AD19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="23993475" y="733425"/>
-          <a:ext cx="685800" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDF508D-5EAD-6177-BF0B-215EDD247030}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="32204025" y="714375"/>
-          <a:ext cx="285750" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -7177,12 +6100,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="awyrwa" id="{CF6847B2-AD86-423B-BF32-E5B6B4D71763}" userId="awyrwa" providerId="None"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7531,17 +6448,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Y5" dT="2022-08-09T11:09:00.18" personId="{CF6847B2-AD86-423B-BF32-E5B6B4D71763}" id="{70911FE4-4C4E-4558-8CD0-C1439EB30AC1}">
-    <text>Produkcja energii elektrycznej netto w pełnej kondensacji</text>
-  </threadedComment>
-  <threadedComment ref="AB5" dT="2022-08-09T11:11:46.85" personId="{CF6847B2-AD86-423B-BF32-E5B6B4D71763}" id="{E4F5F666-2BDB-4F8C-8784-8054A11A4221}">
-    <text>Wielkość produkcji energii elektrycznej, która jest „tracona” na rzecz produkcji ciepła PPELC (upuszczona para mogłaby wykonać pracę na łopatach turbiny skutkującą produkcją energii elektrycznej)</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
@@ -7551,400 +6457,400 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="13.8" thickBot="1">
-      <c r="B4" s="80" t="s">
+    <row r="4" spans="2:9" ht="13.5" thickBot="1">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="52.8">
-      <c r="B5" s="83" t="s">
+    <row r="5" spans="2:9" ht="51">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.6">
-      <c r="B6" s="86"/>
-      <c r="C6" s="79" t="s">
+    <row r="6" spans="2:9" ht="15.75">
+      <c r="B6" s="68"/>
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.6">
-      <c r="B7" s="88" t="s">
+    <row r="7" spans="2:9" ht="15.75">
+      <c r="B7" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="60">
         <v>17023.8</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="60">
         <v>47860</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60">
         <v>20996.9</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="60">
         <v>21688.2</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="89"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.6">
-      <c r="B8" s="88" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75">
+      <c r="B8" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="60">
         <v>7391.2</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="60">
         <v>34351.700000000004</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60">
         <v>45266.6</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="60">
         <v>7935.8</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="89"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.6">
-      <c r="B9" s="88" t="s">
+      <c r="H8" s="60"/>
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75">
+      <c r="B9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="60">
         <v>4094.6000000000022</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="60">
         <v>16259.8</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="60">
         <v>137017.29999999999</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="60">
         <v>11204.8</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="60">
         <v>21089.599999999999</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="89"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.6">
-      <c r="B10" s="88" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="71"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75">
+      <c r="B10" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="60">
         <v>1656.5</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="60">
         <v>7464.6</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="60">
         <v>17571.3</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60">
         <v>2109.5030000000002</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="71">
         <v>32467</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.6">
-      <c r="B11" s="88" t="s">
+    <row r="11" spans="2:9" ht="15.75">
+      <c r="B11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="60">
         <v>6227.6934486274804</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="60">
         <v>15623.048922000018</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="89"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.6">
-      <c r="B12" s="88" t="s">
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75">
+      <c r="B12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="60">
         <v>3954.96</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="60">
         <v>1957.92</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="89"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.6">
-      <c r="B13" s="90" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75">
+      <c r="B13" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="85">
         <v>19.806000000000001</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78">
+      <c r="D13" s="60"/>
+      <c r="E13" s="60">
         <v>81695</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="60">
         <v>4227</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="60">
         <v>22840</v>
       </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="89"/>
-    </row>
-    <row r="14" spans="2:9" ht="13.8" thickBot="1">
-      <c r="B14" s="91" t="s">
+      <c r="H13" s="60"/>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="2:9" ht="13.5" thickBot="1">
+      <c r="B14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93">
+      <c r="C14" s="74"/>
+      <c r="D14" s="75">
         <f>SUM(D7:D13)</f>
         <v>123517.06892200003</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="75">
         <f>SUM(E7:E13)</f>
         <v>236283.59999999998</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="94"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="76"/>
     </row>
     <row r="15" spans="2:9" ht="15.6" customHeight="1">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="64" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="64" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-    </row>
-    <row r="20" spans="2:15" ht="13.8" thickBot="1">
-      <c r="B20" s="80" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+    </row>
+    <row r="20" spans="2:15" ht="13.5" thickBot="1">
+      <c r="B20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-    </row>
-    <row r="21" spans="2:15" ht="31.65" customHeight="1">
-      <c r="B21" s="95" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="2:15" ht="31.7" customHeight="1">
+      <c r="B21" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="80">
         <v>0.95</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="62"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="80">
         <v>0.95</v>
       </c>
-      <c r="E23" s="80"/>
-    </row>
-    <row r="24" spans="2:15" ht="13.8" thickBot="1">
-      <c r="B24" s="99" t="s">
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="2:15" ht="13.5" thickBot="1">
+      <c r="B24" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="83">
         <v>0.85899999999999999</v>
       </c>
-      <c r="E24" s="80"/>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="80"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="62"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="80"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="62"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="80"/>
-    </row>
-    <row r="28" spans="2:15" ht="13.8" thickBot="1">
-      <c r="B28" s="80" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="62"/>
+    </row>
+    <row r="28" spans="2:15" ht="13.5" thickBot="1">
+      <c r="B28" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="80"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
     </row>
     <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="62"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D30" s="80">
         <f>SUM(D7:D12)*D22/1000</f>
         <v>117.34121547590003</v>
       </c>
-      <c r="E30" s="80"/>
-    </row>
-    <row r="31" spans="2:15" ht="13.8" thickBot="1">
-      <c r="B31" s="99" t="s">
+      <c r="E30" s="62"/>
+    </row>
+    <row r="31" spans="2:15" ht="13.5" thickBot="1">
+      <c r="B31" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="101">
+      <c r="D31" s="83">
         <f>SUM(E7:E13)*D24/1000</f>
         <v>202.96761239999998</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="62"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="80"/>
+      <c r="B36" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7955,25 +6861,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15">
@@ -7982,7 +6888,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="24"/>
@@ -7993,7 +6899,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="5" spans="2:9" ht="17.45" customHeight="1">
       <c r="B5" s="26"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -8003,7 +6909,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="2:9" ht="17.45" customHeight="1">
       <c r="B6" s="26" t="s">
         <v>44</v>
       </c>
@@ -8016,193 +6922,125 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="H9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111" t="s">
+      <c r="I9" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="111" t="s">
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B10" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="D10" s="89" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B10" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="114" t="s">
+      <c r="E10" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="C11" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B11" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="112" t="s">
+      <c r="D11" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="E11" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="111" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B12" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="113"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B13" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="111" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="111"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -8216,21 +7054,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J9:J19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="10" width="6.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="10" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
@@ -8238,21 +7076,21 @@
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15">
-      <c r="B2" s="139" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
+      <c r="B2" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.7" customHeight="1">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.649999999999999" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="51" t="s">
-        <v>80</v>
+      <c r="B4" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="27"/>
@@ -8266,7 +7104,7 @@
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="B6" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
@@ -8278,343 +7116,208 @@
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="66" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B8" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="C8" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="D8" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="E8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="F8" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="G8" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="H8" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="I8" s="55" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B8" s="67" t="s">
+      <c r="J8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="67" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="C9" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="D9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="E9" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="F9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H9" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="67" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="E10" s="51" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="116" t="s">
+      <c r="F10" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="F11" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E12" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="F12" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34" t="s">
+      <c r="C13" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="117" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="117" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B13" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B14" s="117" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B15" s="116" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B16" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B17" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B18" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="115" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.6">
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
+      <c r="F13" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -8631,32 +7334,32 @@
   <dimension ref="B2:Y30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B2" s="51" t="s">
-        <v>127</v>
+      <c r="B2" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="E2" s="6"/>
       <c r="H2" s="9"/>
@@ -8681,7 +7384,7 @@
     </row>
     <row r="4" spans="2:25" ht="15.75" customHeight="1">
       <c r="E4" s="18" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8694,89 +7397,89 @@
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="2:25" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B5" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>140</v>
+      <c r="B5" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>119</v>
       </c>
       <c r="R5"/>
       <c r="S5"/>
     </row>
     <row r="6" spans="2:25" ht="53.1" customHeight="1" thickBot="1">
-      <c r="B6" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="N6" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="T6" s="44"/>
+      <c r="B6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="39"/>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1">
@@ -8788,164 +7491,164 @@
         <f>SEC_Processes!E11</f>
         <v>Elektrownie zawodowe opalane weglem kamiennym</v>
       </c>
-      <c r="D7" s="124" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="124" t="str">
+      <c r="D7" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="99" t="str">
         <f>SEC_Comm!C9</f>
-        <v>ELE_WN</v>
-      </c>
-      <c r="F7" s="118">
+        <v>ELE</v>
+      </c>
+      <c r="F7" s="93">
         <f>(BILANS!D7*3.6/10^3)/(BILANS!F7*BILANS!G7/10^6)</f>
         <v>0.37835241091502259</v>
       </c>
-      <c r="G7" s="119">
+      <c r="G7" s="94">
         <v>31.536000000000001</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="93">
         <f>BILANS!C7/1000</f>
         <v>17.023799999999998</v>
       </c>
-      <c r="I7" s="118">
+      <c r="I7" s="93">
         <f>H7</f>
         <v>17.023799999999998</v>
       </c>
-      <c r="J7" s="120">
+      <c r="J7" s="95">
         <v>1</v>
       </c>
-      <c r="K7" s="120">
+      <c r="K7" s="95">
         <f>BILANS!D7/BILANS!C7*1000/8760</f>
         <v>0.32093130321283753</v>
       </c>
-      <c r="L7" s="119">
+      <c r="L7" s="94">
         <v>0.85</v>
       </c>
-      <c r="M7" s="120">
+      <c r="M7" s="95">
         <f>44*4.5</f>
         <v>198</v>
       </c>
-      <c r="N7" s="119">
+      <c r="N7" s="94">
         <f>3.4/3.6*4.5</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="59" t="str">
+      <c r="B8" s="48" t="str">
         <f>SEC_Processes!D12</f>
         <v>EL_WB</v>
       </c>
-      <c r="C8" s="59" t="str">
+      <c r="C8" s="48" t="str">
         <f>SEC_Processes!E12</f>
         <v>Elektrownie zawodowe opalane weglem brunatnym</v>
       </c>
-      <c r="D8" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="125" t="str">
+      <c r="D8" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="100" t="str">
         <f>SEC_Comm!C9</f>
-        <v>ELE_WN</v>
-      </c>
-      <c r="F8" s="121">
+        <v>ELE</v>
+      </c>
+      <c r="F8" s="96">
         <f>(BILANS!D8*3.6/10^3)/(BILANS!F8*BILANS!G8/10^6)</f>
         <v>0.34425649711369494</v>
       </c>
-      <c r="G8" s="122">
+      <c r="G8" s="97">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="96">
         <f>BILANS!C8/1000</f>
         <v>7.3911999999999995</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I8" s="96">
         <f>H8</f>
         <v>7.3911999999999995</v>
       </c>
-      <c r="J8" s="123">
+      <c r="J8" s="98">
         <v>1</v>
       </c>
-      <c r="K8" s="123">
+      <c r="K8" s="98">
         <f>BILANS!D8/BILANS!C8*1000/8760</f>
         <v>0.530553488018085</v>
       </c>
-      <c r="L8" s="122">
+      <c r="L8" s="97">
         <v>0.85</v>
       </c>
-      <c r="M8" s="123">
+      <c r="M8" s="98">
         <f>49*4.5</f>
         <v>220.5</v>
       </c>
-      <c r="N8" s="123">
+      <c r="N8" s="98">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:25">
-      <c r="P12" s="42"/>
-      <c r="Q12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
     </row>
     <row r="13" spans="2:25">
-      <c r="I13" s="37"/>
-      <c r="Q13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
+      <c r="I13" s="35"/>
+      <c r="Q13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
     </row>
     <row r="14" spans="2:25">
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="105"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="46"/>
+      <c r="Q14" s="87"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="47"/>
+      <c r="Y14" s="42"/>
     </row>
     <row r="15" spans="2:25">
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="46"/>
+      <c r="Q15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="41"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="47"/>
+      <c r="Y15" s="42"/>
     </row>
     <row r="16" spans="2:25">
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="Y16" s="48"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="Y16" s="43"/>
     </row>
     <row r="17" spans="8:25">
       <c r="P17" s="3"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="Y17" s="48"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="Y17" s="43"/>
     </row>
     <row r="20" spans="8:25">
-      <c r="I20" s="37"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="24" spans="8:25">
-      <c r="I24" s="37"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="28" spans="8:25">
       <c r="H28" s="3"/>
     </row>
     <row r="30" spans="8:25">
       <c r="H30" s="3"/>
-      <c r="I30" s="37"/>
+      <c r="I30" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -8961,27 +7664,27 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="12" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.399999999999999">
-      <c r="B2" s="51" t="s">
-        <v>154</v>
+    <row r="2" spans="2:13" ht="18">
+      <c r="B2" s="44" t="s">
+        <v>133</v>
       </c>
       <c r="C2" s="23"/>
       <c r="E2" s="6"/>
@@ -9003,7 +7706,7 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" customHeight="1">
       <c r="E4" s="18" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9014,79 +7717,79 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="2:13" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="69" t="s">
+      <c r="B5" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="63.75" customHeight="1" thickBot="1">
+      <c r="B6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="L6" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="70" t="s">
+      <c r="M6" s="59" t="s">
         <v>136</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="63.75" customHeight="1" thickBot="1">
-      <c r="B6" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" customHeight="1">
@@ -9099,34 +7802,31 @@
         <v>Elektrownie wiatrowe na ladzie</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E7" s="30" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELE_SN</v>
-      </c>
-      <c r="F7" s="32">
+        <f>SEC_Comm!C9</f>
+        <v>ELE</v>
+      </c>
+      <c r="F7" s="31">
         <v>1</v>
       </c>
       <c r="G7" s="30">
         <v>31.536000000000001</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <f>BILANS!C11/1000</f>
         <v>6.2276934486274804</v>
       </c>
-      <c r="I7" s="126">
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="126">
-        <f>BILANS!D11/BILANS!C11*1000/8760</f>
-        <v>0.28637457639806085</v>
-      </c>
-      <c r="K7" s="126">
+      <c r="I7" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101">
         <f>50*4.5</f>
         <v>225</v>
       </c>
-      <c r="L7" s="126">
+      <c r="L7" s="101">
         <v>0</v>
       </c>
       <c r="M7" s="30">
@@ -9134,46 +7834,43 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="49" t="str">
         <f>SEC_Processes!D10</f>
         <v>EL_SLONCE</v>
       </c>
-      <c r="C8" s="61" t="str">
+      <c r="C8" s="49" t="str">
         <f>SEC_Processes!E10</f>
         <v>Elektrownie fotowoltaiczne</v>
       </c>
-      <c r="D8" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="61" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELE_SN</v>
-      </c>
-      <c r="F8" s="104">
+      <c r="D8" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="49" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELE</v>
+      </c>
+      <c r="F8" s="86">
         <v>1</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="49">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="86">
         <f>BILANS!C12/1000</f>
         <v>3.9549600000000003</v>
       </c>
-      <c r="I8" s="127">
-        <v>0.2</v>
-      </c>
-      <c r="J8" s="127">
-        <f>BILANS!D12/BILANS!C12*1000/8760</f>
-        <v>5.6513049263473843E-2</v>
-      </c>
-      <c r="K8" s="127">
+      <c r="I8" s="102">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102">
         <f>16*4.5</f>
         <v>72</v>
       </c>
-      <c r="L8" s="127">
+      <c r="L8" s="102">
         <v>0</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="49">
         <v>30</v>
       </c>
     </row>
@@ -9186,867 +7883,98 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Arkusz5"/>
-  <dimension ref="B2:AI23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Arkusz7"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" customWidth="1"/>
-    <col min="23" max="23" width="29.6640625" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" customWidth="1"/>
-    <col min="26" max="27" width="13.88671875" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" customWidth="1"/>
-    <col min="31" max="32" width="14.5546875" customWidth="1"/>
-    <col min="33" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="13.88671875" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="17.399999999999999">
-      <c r="B2" s="51" t="s">
-        <v>160</v>
+    <row r="2" spans="2:9" ht="18">
+      <c r="B2" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="23"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="2:35" ht="15">
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="X3" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y3" s="51"/>
-    </row>
-    <row r="4" spans="2:35" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="E4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="2:35" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B5" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B5" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.7" customHeight="1" thickBot="1">
+      <c r="B6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="S5" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="X5" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="75"/>
-    </row>
-    <row r="6" spans="2:35" ht="42" customHeight="1" thickBot="1">
-      <c r="B6" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="N6" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="O6" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q6" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="R6" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="S6" s="71"/>
-      <c r="X6" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y6" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z6" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA6" s="77" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB6" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="AD6" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE6" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF6" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG6" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH6" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI6" s="77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" ht="15" customHeight="1">
-      <c r="B7" s="30" t="str">
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="29" t="str">
         <f>SEC_Processes!D13</f>
-        <v>EC_WK</v>
-      </c>
-      <c r="C7" s="30" t="str">
+        <v>TaD_ELE_nn</v>
+      </c>
+      <c r="C7" s="29" t="str">
         <f>SEC_Processes!E13</f>
-        <v>Elektrocieplownie z turbinami przeciwpreznymi</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="106">
-        <f>(M7*L7*O7)/(BILANS!F9*BILANS!G9/10^6)</f>
-        <v>0.24771097483306254</v>
-      </c>
-      <c r="H7" s="107">
-        <f>BILANS!E9/(3.6*BILANS!D9)</f>
-        <v>2.3407644073796177</v>
-      </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="M7" s="106">
-        <f>BILANS!C9/1000</f>
-        <v>4.0946000000000025</v>
-      </c>
-      <c r="N7" s="107">
-        <v>1</v>
-      </c>
-      <c r="O7" s="107">
-        <f>BILANS!D9/BILANS!C9*1000/8760</f>
-        <v>0.45331450019816694</v>
-      </c>
-      <c r="P7" s="107">
-        <f>48*4.5</f>
-        <v>216</v>
-      </c>
-      <c r="Q7" s="107">
-        <f>3.2/3.6*4.5</f>
-        <v>4</v>
-      </c>
-      <c r="R7" s="108">
-        <v>30</v>
-      </c>
-      <c r="S7" s="29"/>
-      <c r="V7" s="140" t="str">
-        <f>SEC_Processes!D13</f>
-        <v>EC_WK</v>
-      </c>
-      <c r="W7" s="142" t="str">
-        <f>SEC_Processes!E13</f>
-        <v>Elektrocieplownie z turbinami przeciwpreznymi</v>
-      </c>
-      <c r="X7" s="140">
-        <f>M7*L7*O7</f>
-        <v>58.53528</v>
-      </c>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="141">
-        <f>M7*L7*O7/3.6</f>
-        <v>16.259799999999998</v>
-      </c>
-      <c r="AA7" s="140">
-        <f>Z7*3.6</f>
-        <v>58.535279999999993</v>
-      </c>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="141">
-        <f>AA7*H7</f>
-        <v>137.01729999999998</v>
-      </c>
-      <c r="AE7" s="140">
-        <f>AA7+AD7</f>
-        <v>195.55257999999998</v>
-      </c>
-      <c r="AF7" s="140">
-        <f>AA7/AD7</f>
-        <v>0.42721087045212541</v>
-      </c>
-      <c r="AG7" s="140">
-        <f>X7/G7</f>
-        <v>236.30475007999996</v>
-      </c>
-      <c r="AH7" s="140">
-        <f>AG7*10^6/(BILANS!G9/1000)/1000</f>
-        <v>11204.8</v>
-      </c>
-      <c r="AI7" s="140">
-        <f>AE7/AG7</f>
-        <v>0.82754400803960348</v>
-      </c>
-    </row>
-    <row r="8" spans="2:35" ht="15" customHeight="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30" t="str">
+        <v>Przesyl SN, transformacja SN na nn, dystrybucja nn</v>
+      </c>
+      <c r="D7" s="30" t="str">
         <f>SEC_Comm!C9</f>
-        <v>ELE_WN</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="140"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="140"/>
-    </row>
-    <row r="9" spans="2:35" ht="15" customHeight="1">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="str">
-        <f>SEC_Comm!C12</f>
-        <v>CIEP_WT</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="142"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="140"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="140"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="140"/>
-      <c r="AH9" s="140"/>
-      <c r="AI9" s="140"/>
-    </row>
-    <row r="10" spans="2:35" ht="15" customHeight="1">
-      <c r="B10" s="53" t="str">
-        <f>SEC_Processes!D14</f>
-        <v>EC_GAZ</v>
-      </c>
-      <c r="C10" s="53" t="str">
-        <f>SEC_Processes!E14</f>
-        <v>Elektrocieplownie z turbinami upustowo-kondensacyjnymi</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="110">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="J10" s="128">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="109">
-        <v>0.25</v>
-      </c>
-      <c r="L10" s="109">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="M10" s="110">
-        <f>BILANS!C10/1000</f>
-        <v>1.6565000000000001</v>
-      </c>
-      <c r="N10" s="128">
-        <v>1</v>
-      </c>
-      <c r="O10" s="128">
-        <v>0.59850000000000003</v>
-      </c>
-      <c r="P10" s="128">
-        <v>97.199999999999989</v>
-      </c>
-      <c r="Q10" s="128">
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="R10" s="109">
-        <v>30</v>
-      </c>
-      <c r="S10" s="55"/>
-      <c r="V10" s="140" t="str">
-        <f>SEC_Processes!D14</f>
-        <v>EC_GAZ</v>
-      </c>
-      <c r="W10" s="142" t="str">
-        <f>SEC_Processes!E14</f>
-        <v>Elektrocieplownie z turbinami upustowo-kondensacyjnymi</v>
-      </c>
-      <c r="X10" s="140">
-        <f>M10*L10*O10</f>
-        <v>31.265271324000008</v>
-      </c>
-      <c r="Y10" s="140">
-        <f>M10*L10*O10/3.6</f>
-        <v>8.6847975900000023</v>
-      </c>
-      <c r="Z10" s="141">
-        <f>BILANS!D10/1000</f>
-        <v>7.4646000000000008</v>
-      </c>
-      <c r="AA10" s="140">
-        <f>Z10*3.6</f>
-        <v>26.872560000000004</v>
-      </c>
-      <c r="AB10" s="140">
-        <f>Y10-Z10</f>
-        <v>1.2201975900000015</v>
-      </c>
-      <c r="AC10" s="140">
-        <f>AB10*3.6</f>
-        <v>4.3927113240000057</v>
-      </c>
-      <c r="AD10" s="141">
-        <f>AC10/K10</f>
-        <v>17.570845296000023</v>
-      </c>
-      <c r="AE10" s="140">
-        <f>AA10+AD10</f>
-        <v>44.443405296000023</v>
-      </c>
-      <c r="AF10" s="140">
-        <f>AA10/AD10</f>
-        <v>1.5293834501017149</v>
-      </c>
-      <c r="AG10" s="140">
-        <f>X10/G10</f>
-        <v>56.845947861818189</v>
-      </c>
-      <c r="AH10" s="140">
-        <f>AG10*10^6/(BILANS!I10/1000)/1000</f>
-        <v>1750.8839086401019</v>
-      </c>
-      <c r="AI10" s="140">
-        <f>AE10/AG10</f>
-        <v>0.78182187064649855</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" ht="15" customHeight="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="53" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELE_WN</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="140"/>
-      <c r="Z11" s="141"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="140"/>
-      <c r="AD11" s="141"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="140"/>
-      <c r="AH11" s="140"/>
-      <c r="AI11" s="140"/>
-    </row>
-    <row r="12" spans="2:35" ht="15" customHeight="1" thickBot="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59" t="str">
-        <f>SEC_Comm!C12</f>
-        <v>CIEP_WT</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="V12" s="140"/>
-      <c r="W12" s="142"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="140"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="140"/>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="140"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="140"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="140"/>
-      <c r="AH12" s="140"/>
-      <c r="AI12" s="140"/>
-    </row>
-    <row r="17" spans="30:35">
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-    </row>
-    <row r="18" spans="30:35">
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-    </row>
-    <row r="19" spans="30:35">
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AI19" s="45"/>
-    </row>
-    <row r="20" spans="30:35">
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-    </row>
-    <row r="23" spans="30:35">
-      <c r="AI23" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="V10:V12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="Y10:Y12"/>
-    <mergeCell ref="Z10:Z12"/>
-    <mergeCell ref="AI7:AI9"/>
-    <mergeCell ref="AI10:AI12"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AD10:AD12"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="AB10" formula="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Arkusz6"/>
-  <dimension ref="B1:M7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="12.75" customHeight="1">
-      <c r="I1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="17.399999999999999">
-      <c r="B2" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="6"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="11"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" customHeight="1">
-      <c r="E4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B5" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="45" customHeight="1" thickBot="1">
-      <c r="B6" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="36" t="str">
-        <f>SEC_Processes!D15</f>
-        <v>CP_WK</v>
-      </c>
-      <c r="C7" s="36" t="str">
-        <f>SEC_Processes!E15</f>
-        <v>Cieplownie opalane weglem kamiennym</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="36" t="str">
-        <f>SEC_Comm!C12</f>
-        <v>CIEP_WT</v>
-      </c>
-      <c r="F7" s="130">
-        <f>(H7*G7*K7)/(BILANS!F13*BILANS!G13/10^6)</f>
-        <v>0.84618852121111177</v>
-      </c>
-      <c r="G7" s="73">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="H7" s="36">
-        <f>BILANS!C13</f>
-        <v>19.806000000000001</v>
-      </c>
-      <c r="I7" s="36">
-        <f>H7</f>
-        <v>19.806000000000001</v>
-      </c>
-      <c r="J7" s="72">
-        <v>1</v>
-      </c>
-      <c r="K7" s="72">
-        <f>(BILANS!E13/1000)/(H7*G7)</f>
-        <v>0.13079528709045984</v>
-      </c>
-      <c r="L7" s="137">
-        <v>14.323</v>
-      </c>
-      <c r="M7" s="137">
-        <v>3.617</v>
+        <v>ELE</v>
+      </c>
+      <c r="E7" s="30" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELE_nn</v>
+      </c>
+      <c r="F7" s="31">
+        <f>BILANS!D22</f>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -10055,170 +7983,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Arkusz7"/>
-  <dimension ref="B2:I9"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Arkusz8"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="55.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="53.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
-      <c r="B2" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="11"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1">
-      <c r="E4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B5" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.65" customHeight="1" thickBot="1">
-      <c r="B6" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="29" t="str">
-        <f>SEC_Processes!D16</f>
-        <v>ELE_SN_nn</v>
-      </c>
-      <c r="C7" s="29" t="str">
-        <f>SEC_Processes!E16</f>
-        <v>Przesyl SN, transformacja SN na nn, dystrybucja nn</v>
-      </c>
-      <c r="D7" s="30" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELE_SN</v>
-      </c>
-      <c r="E7" s="30" t="str">
-        <f>SEC_Comm!C11</f>
-        <v>ELE_nn</v>
-      </c>
-      <c r="F7" s="32">
-        <f>BILANS!D22</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="55" t="str">
-        <f>SEC_Processes!D17</f>
-        <v>ELE_WN_nn</v>
-      </c>
-      <c r="C8" s="55" t="str">
-        <f>SEC_Processes!E17</f>
-        <v>Przesyl NN oraz WN, transformacja NN-WN na nn, dystrybucja nn</v>
-      </c>
-      <c r="D8" s="55" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELE_WN</v>
-      </c>
-      <c r="E8" s="55" t="str">
-        <f>SEC_Comm!C11</f>
-        <v>ELE_nn</v>
-      </c>
-      <c r="F8" s="131">
-        <f>BILANS!D23</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="36" t="str">
-        <f>SEC_Processes!D18</f>
-        <v>CIEP_WT_NT</v>
-      </c>
-      <c r="C9" s="36" t="str">
-        <f>SEC_Processes!E18</f>
-        <v xml:space="preserve">Przesyl, dystrybucja oraz transformacja ciepla sieciowego </v>
-      </c>
-      <c r="D9" s="40" t="str">
-        <f>SEC_Comm!C12</f>
-        <v>CIEP_WT</v>
-      </c>
-      <c r="E9" s="40" t="str">
-        <f>SEC_Comm!C13</f>
-        <v>CIEP_NT</v>
-      </c>
-      <c r="F9" s="132">
-        <f>BILANS!D24</f>
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Arkusz8"/>
-  <dimension ref="B2:H11"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15">
-      <c r="B2" s="51" t="s">
-        <v>193</v>
+      <c r="B2" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -10228,10 +8011,10 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -10239,111 +8022,68 @@
     <row r="4" spans="2:8" ht="15.75" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="18" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B5" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31.65" customHeight="1" thickBot="1">
-      <c r="B6" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="143" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
+      <c r="D5" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="31.7" customHeight="1" thickBot="1">
+      <c r="B6" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1">
       <c r="B7" s="30" t="str">
         <f>SEC_Processes!D11</f>
         <v>EL_WK</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="133">
+      <c r="C7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="103">
         <v>94.19</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B8" s="53" t="str">
+      <c r="B8" s="46" t="str">
         <f>SEC_Processes!D12</f>
         <v>EL_WB</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134">
+      <c r="C8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104">
         <v>109.08</v>
       </c>
-      <c r="F8" s="134"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B9" s="30" t="str">
-        <f>SEC_Processes!D13</f>
-        <v>EC_WK</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="133">
-        <v>94.19</v>
-      </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="53" t="str">
-        <f>SEC_Processes!D14</f>
-        <v>EC_GAZ</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134">
-        <v>55.82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="13.8" thickBot="1">
-      <c r="B11" s="36" t="str">
-        <f>SEC_Processes!D15</f>
-        <v>CP_WK</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="135">
-        <v>94.19</v>
-      </c>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="H11" s="3"/>
+      <c r="F8" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10366,8 +8106,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="458484c08c05aa2dc066be8a32f6ad95">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a314b506e951999bec5448e79df60c0" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -10608,15 +8357,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
@@ -10629,13 +8369,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96A05970-A478-41B0-851D-B39A7C3F7099}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C942543-D835-4828-8B80-6C881B1E8B44}"/>
 </file>